--- a/Tos.FoodProcs.Web/templates/keikokuList_vi.xlsx
+++ b/Tos.FoodProcs.Web/templates/keikokuList_vi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\~2025\FPL_Vietnamese_Version2\1.SRC_v2\trunk\src\01_FPLite\src\C#\Tos.FoodProcs.Web\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\1.FP_Lite_Ver_2\trunk\src\01_FPLite\src\C#\Tos.FoodProcs.Web\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7DB927-3F93-4D86-AEAB-CB904EA2CF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2003B3CA-36E9-4562-A7EB-7F732726C9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,51 +57,94 @@
     <t>Danh sách cảnh báo</t>
   </si>
   <si>
-    <t>Người xuất:</t>
-  </si>
-  <si>
-    <t>Ngày giờ xuất:</t>
-  </si>
-  <si>
-    <t>Tên sản phẩm                                                        :</t>
-  </si>
-  <si>
-    <t>Danh sách cảnh báo                                              :</t>
-  </si>
-  <si>
-    <t>Tồn kho hôm trước - Lượng sử dụng hôm nay     :</t>
-  </si>
-  <si>
-    <t>Tồn kho tối đa cũng cảnh báo                               :</t>
-  </si>
-  <si>
-    <t>Hiển thị tất cả nguyên vật liệu                               :</t>
-  </si>
-  <si>
-    <t>Thêm thời gian cung ứng                                      :</t>
-  </si>
-  <si>
-    <t>Loại sản phẩm　   　　                                          :</t>
-  </si>
-  <si>
-    <t>Ngày điều kiện tìm kiếm   　　　　                        :</t>
-  </si>
-  <si>
-    <t>Nhóm sản phẩm     　　　　　　                           :</t>
-  </si>
-  <si>
-    <t>Kho      　    　　    　　　                                     :</t>
+    <t>Ngày điều kiện tìm kiếm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Loại sản phẩm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nhóm sản phẩm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kho</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tên sản phẩm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Danh sách cảnh báo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tồn kho hôm trước - Lượng sử dụng hôm nay</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Tồn kho tối đa c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ũ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ng cảnh báo</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hiển thị tất cả nguyên vật liệu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Thêm thời gian cung ứng</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ngày giờ xuất</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Người xuất</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#,##0.000"/>
-    <numFmt numFmtId="165" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="#,##0.000"/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="182" formatCode="@* \:"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ ゴシック"/>
@@ -139,6 +182,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -160,7 +209,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -241,6 +290,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="9"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="9"/>
+      </right>
+      <top style="medium">
+        <color indexed="9"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0">
@@ -248,7 +323,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -289,11 +364,7 @@
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -301,11 +372,11 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -321,7 +392,7 @@
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -337,12 +408,20 @@
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -363,9 +442,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -403,9 +482,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -438,26 +517,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -490,26 +552,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -693,20 +738,20 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" style="19" customWidth="1"/>
-    <col min="2" max="2" width="25.5546875" style="19" customWidth="1"/>
-    <col min="3" max="3" width="35.109375" style="20" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="21" customWidth="1"/>
-    <col min="7" max="8" width="18" style="22" customWidth="1"/>
-    <col min="9" max="9" width="32.21875" style="20" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="23"/>
+    <col min="1" max="1" width="19.5" style="18" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="35.125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.5" style="18" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="19" customWidth="1"/>
+    <col min="6" max="6" width="16.625" style="20" customWidth="1"/>
+    <col min="7" max="8" width="18" style="21" customWidth="1"/>
+    <col min="9" max="9" width="32.25" style="19" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="8" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -717,142 +762,155 @@
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="1:9" s="8" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="12"/>
+    <row r="2" spans="1:9" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="6"/>
       <c r="F2" s="9"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:9" s="8" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="12"/>
+    <row r="3" spans="1:9" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="6"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-    </row>
-    <row r="4" spans="1:9" s="8" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="6"/>
       <c r="F4" s="9"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:9" s="8" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="12"/>
+    <row r="5" spans="1:9" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="6"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="1:9" s="8" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:9" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="6"/>
       <c r="F6" s="9"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:9" s="8" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="12"/>
+    <row r="7" spans="1:9" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="6"/>
       <c r="F7" s="9"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="1:9" s="8" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:9" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="6"/>
       <c r="F8" s="9"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:9" s="8" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="12"/>
+    <row r="9" spans="1:9" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="6"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:9" s="8" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:9" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="6"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:9" s="8" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:9" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="6"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:9" s="8" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="C12" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:9" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="23"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="6"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:9" s="8" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:9" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="6"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:9" s="8" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="1:9" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="6"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="1:9" s="15" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="D15" s="16"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-    </row>
-    <row r="16" spans="1:9" s="8" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:9" s="14" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13"/>
+      <c r="D15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:9" s="8" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -882,6 +940,21 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0" footer="0"/>
